--- a/biology/Botanique/Euphorbia_regis-jubae/Euphorbia_regis-jubae.xlsx
+++ b/biology/Botanique/Euphorbia_regis-jubae/Euphorbia_regis-jubae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphorbia regis-jubae est une espèce de plante de la famille des Euphorbiacées.
 </t>
@@ -511,10 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les noms locaux aux Îles Canaries sont Tabaiba morisca, Tabaiba salvaje ou  Higuerilla.
-Le nom regis-jubae a été attribué en référence au roi antique berbère Juba II [1].
+Le nom regis-jubae a été attribué en référence au roi antique berbère Juba II .
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Synonymes homotypiques:
 Euphorbia obtusifolia subsp. regis-jubae (J. Gay) Maire (1936)
@@ -581,7 +597,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphorbia regis-jubae est endémique aux îles Canaries orientales (Grande Canarie, Fuerteventura, Lanzarote et archipel de Chinijo) et au Parc national de Souss-Massa au sud du Maroc.
 </t>
@@ -612,13 +630,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste qui peut atteindre 1,5 m de haut.
 Les feuilles sont lancéolées
-Les infloresences sont situées en rosettes terminales[2].
+Les infloresences sont situées en rosettes terminales.
 			Inflorescence pédonculées en rosette terminale.
-			Infructescence, les bractées persistent lors de la fructification[1].
+			Infructescence, les bractées persistent lors de la fructification.
 </t>
         </is>
       </c>
@@ -647,9 +667,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le latex de la plante est un antalgique toxique[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le latex de la plante est un antalgique toxique.
 </t>
         </is>
       </c>
